--- a/biology/Botanique/Eleutherococcus_senticosus/Eleutherococcus_senticosus.xlsx
+++ b/biology/Botanique/Eleutherococcus_senticosus/Eleutherococcus_senticosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherococcus senticosus est un buisson de la famille des Araliaceae originaire de Sibérie et d'Asie du nord-est[1]. Il peut atteindre 3 m. et supporte des climats froids (zone de rusticité USDA 3a à 8b)[2].  
-La racine est appelée improprement [3] Ginseng de Sibérie à cause de ses effets adaptogènes, étudiés et utilisés chez les sportifs du temps de l'URSS[1]. Il est employé en médecine homéopathique [4] et souvent mentionné comme complément alimentaire avec pour indication : fatigue, surmenage, herpes, immunodéficience[5],[6], et plus généralement qualité de vie des personnes âgées [7]. L'écorce est également utilisée en médecine traditionnelle [8]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherococcus senticosus est un buisson de la famille des Araliaceae originaire de Sibérie et d'Asie du nord-est. Il peut atteindre 3 m. et supporte des climats froids (zone de rusticité USDA 3a à 8b).  
+La racine est appelée improprement  Ginseng de Sibérie à cause de ses effets adaptogènes, étudiés et utilisés chez les sportifs du temps de l'URSS. Il est employé en médecine homéopathique  et souvent mentionné comme complément alimentaire avec pour indication : fatigue, surmenage, herpes, immunodéficience et plus généralement qualité de vie des personnes âgées . L'écorce est également utilisée en médecine traditionnelle . 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymes : Eleutherococcus asperatus (Franch. &amp; Sav.) Koidz, Acanthopanax asperatus Franch. &amp; Sav., A. senticosus (Rupr. &amp; Maxim.) Harms, Hedera senticosa Rupr. &amp; Maxim.
-Également nommé en français : Eleuthérocoque [3], ginseng sibérien, buisson du diable, racine de la taïga[4].
-Maria Davydov recommandait en 2000 de ne pas utiliser le terme "ginseng sibérien" à cause de la confusion possible avec le ginseng [9] (Panax ginseng C.A. Mey). Aux États-Unis, seules les plantes ou dérivés de plantes du genre Panax peuvent être nommées, étiquetées ou vendues sous le nom "ginseng"[10].
+Également nommé en français : Eleuthérocoque , ginseng sibérien, buisson du diable, racine de la taïga.
+Maria Davydov recommandait en 2000 de ne pas utiliser le terme "ginseng sibérien" à cause de la confusion possible avec le ginseng  (Panax ginseng C.A. Mey). Aux États-Unis, seules les plantes ou dérivés de plantes du genre Panax peuvent être nommées, étiquetées ou vendues sous le nom "ginseng".
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concernant les aspects pharmacologiques cette même publication notait à propos des éleutherococcus " Six composés présentent différents niveaux d'activité anti-oxydante, quatre montrent une action anti-cancer, trois montrent une activité hypocholestérolémiante, deux montrent des effets immunostimulants, et un une activité cholérétique, la capacité  modérée de diminuer le niveau d'insuline, une activité radio-protectrice, anti-inflammatoire, antipyrétique, anti-bactérienne."[9]  
-Depuis lors, les publications se sont multipliées sur les composants des diverses parties de la plante (feuille [11], écorce [12], fruit [13]) qui confirment, in vitro ou en expérimentation animale [14], que la plante est une source significative d'anti-oxydants naturels et d'antimicrobiens. Parmi eux l'éteuthéroside B (syringine à l'effet hypoglycémiant chez le rat [15]) spécialement présente dans le rhizome et les racines  (qui se conserve mal dans la poudre de racine, disparait de 50% en 1 an et totalement en 3 ans) [16].  
-Chez l'homme les indications de la médecine traditionnelle chinoise sont soumises à confirmation expérimentale : effet adaptogène[17], effet anti-œdémateux [18], etc.
-Il n'y a pas d'incompatibilité médicamenteuse ni d'effet tératogène signalés [19], ni d'effet indésirable ou d'allergie décrits [20]. La contrindication pour les sujets hypertendus, fréquemment citée, n'est pas démontrée [21]. Sont rapportés, sans mention des dosages ingérés, des réactions cutanées et des insomnies [20].
-Le séquençage progresse, l'ADN du chloroplaste a été publié en 2012 [22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant les aspects pharmacologiques cette même publication notait à propos des éleutherococcus " Six composés présentent différents niveaux d'activité anti-oxydante, quatre montrent une action anti-cancer, trois montrent une activité hypocholestérolémiante, deux montrent des effets immunostimulants, et un une activité cholérétique, la capacité  modérée de diminuer le niveau d'insuline, une activité radio-protectrice, anti-inflammatoire, antipyrétique, anti-bactérienne."  
+Depuis lors, les publications se sont multipliées sur les composants des diverses parties de la plante (feuille , écorce , fruit ) qui confirment, in vitro ou en expérimentation animale , que la plante est une source significative d'anti-oxydants naturels et d'antimicrobiens. Parmi eux l'éteuthéroside B (syringine à l'effet hypoglycémiant chez le rat ) spécialement présente dans le rhizome et les racines  (qui se conserve mal dans la poudre de racine, disparait de 50% en 1 an et totalement en 3 ans) .  
+Chez l'homme les indications de la médecine traditionnelle chinoise sont soumises à confirmation expérimentale : effet adaptogène, effet anti-œdémateux , etc.
+Il n'y a pas d'incompatibilité médicamenteuse ni d'effet tératogène signalés , ni d'effet indésirable ou d'allergie décrits . La contrindication pour les sujets hypertendus, fréquemment citée, n'est pas démontrée . Sont rapportés, sans mention des dosages ingérés, des réactions cutanées et des insomnies .
+Le séquençage progresse, l'ADN du chloroplaste a été publié en 2012 .
 </t>
         </is>
       </c>
